--- a/Cash Book/Expenditure Mian Arshad.xlsx
+++ b/Cash Book/Expenditure Mian Arshad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01DAD9F-7E20-49EA-B6CF-8BC4890E990B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A18CE9-732A-49E7-A2D9-1639B8991F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cash Recevid Via Basit Sahb </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thread Purchasing </t>
   </si>
 </sst>
 </file>
@@ -757,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -798,7 +795,7 @@
       <c r="I1" s="28"/>
       <c r="J1" s="29"/>
       <c r="K1" s="13">
-        <f>D93</f>
+        <f>D94</f>
         <v>471925</v>
       </c>
     </row>
@@ -826,7 +823,7 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F92" si="0">(E3-D3)+F2</f>
+        <f t="shared" ref="F3:F93" si="0">(E3-D3)+F2</f>
         <v>-161500</v>
       </c>
     </row>
@@ -1060,28 +1057,40 @@
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
-        <v>45864</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="7"/>
+        <v>45867</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9">
+        <v>14750</v>
+      </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="26">
+        <v>45868</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9">
+        <v>55000</v>
+      </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1092,7 +1101,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1103,7 +1112,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1114,7 +1123,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1125,7 +1134,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1136,7 +1145,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1147,7 +1156,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1158,7 +1167,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1169,7 +1178,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1180,7 +1189,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1191,7 +1200,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1202,7 +1211,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1213,7 +1222,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1224,7 +1233,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1235,7 +1244,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1246,7 +1255,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1257,7 +1266,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1268,7 +1277,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1279,7 +1288,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1290,7 +1299,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,7 +1310,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1312,7 +1321,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1323,7 +1332,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1334,7 +1343,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1345,7 +1354,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1356,7 +1365,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1367,7 +1376,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1378,7 +1387,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1389,7 +1398,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1400,7 +1409,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1411,7 +1420,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1422,7 +1431,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,7 +1442,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1444,7 +1453,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1455,7 +1464,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1466,7 +1475,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1477,7 +1486,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,7 +1497,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1499,7 +1508,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1510,7 +1519,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1521,7 +1530,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1532,7 +1541,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1543,7 +1552,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1554,7 +1563,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,7 +1574,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1576,7 +1585,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1587,7 +1596,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1598,7 +1607,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1609,7 +1618,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1620,7 +1629,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1631,7 +1640,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1642,7 +1651,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1653,7 +1662,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1664,7 +1673,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1675,7 +1684,7 @@
       <c r="E71" s="9"/>
       <c r="F71" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,7 +1695,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1697,7 +1706,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1708,7 +1717,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1719,7 +1728,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1730,7 +1739,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,7 +1750,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1752,7 +1761,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1763,7 +1772,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1774,7 +1783,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1785,7 +1794,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1796,7 +1805,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1807,7 +1816,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1818,7 +1827,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1829,7 +1838,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1840,7 +1849,7 @@
       <c r="E86" s="9"/>
       <c r="F86" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1851,28 +1860,28 @@
       <c r="E87" s="9"/>
       <c r="F87" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="F88" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="8"/>
       <c r="E89" s="9"/>
       <c r="F89" s="5">
-        <f>(E89-D89)+F88</f>
-        <v>28075</v>
+        <f t="shared" si="0"/>
+        <v>97825</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1882,8 +1891,8 @@
       <c r="D90" s="8"/>
       <c r="E90" s="9"/>
       <c r="F90" s="5">
-        <f t="shared" si="0"/>
-        <v>28075</v>
+        <f>(E90-D90)+F89</f>
+        <v>97825</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1894,10 +1903,10 @@
       <c r="E91" s="9"/>
       <c r="F91" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97825</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -1905,63 +1914,68 @@
       <c r="E92" s="9"/>
       <c r="F92" s="5">
         <f t="shared" si="0"/>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="6"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="5">
+        <f t="shared" si="0"/>
+        <v>97825</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="13">
-        <f>SUM(D3:D92)</f>
+      <c r="B94" s="33"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="13">
+        <f>SUM(D3:D93)</f>
         <v>471925</v>
       </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="5">
-        <f>F91</f>
-        <v>28075</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="14">
-        <f>SUM(E11:E92)</f>
-        <v>500000</v>
-      </c>
+      <c r="E94" s="12"/>
       <c r="F94" s="5">
         <f>F92</f>
-        <v>28075</v>
+        <v>97825</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="35" t="s">
+      <c r="A95" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="14">
+        <f>SUM(E11:E93)</f>
+        <v>569750</v>
+      </c>
+      <c r="F95" s="5">
+        <f>F93</f>
+        <v>97825</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="15">
-        <f>F92</f>
-        <v>28075</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="15">
+        <f>F93</f>
+        <v>97825</v>
+      </c>
+    </row>
     <row r="97" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="18"/>
-    </row>
+    <row r="99" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="C100" s="17"/>
@@ -2513,15 +2527,15 @@
       <c r="C191" s="17"/>
       <c r="D191" s="17"/>
       <c r="E191" s="18"/>
-      <c r="J191" s="10" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="192" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="16"/>
       <c r="C192" s="17"/>
       <c r="D192" s="17"/>
       <c r="E192" s="18"/>
+      <c r="J192" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="193" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="16"/>
@@ -2582,49 +2596,28 @@
       <c r="C202" s="17"/>
       <c r="D202" s="17"/>
       <c r="E202" s="18"/>
-      <c r="H202" s="11"/>
-      <c r="I202" s="11"/>
-      <c r="J202" s="11"/>
-      <c r="K202" s="11"/>
     </row>
     <row r="203" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="16"/>
       <c r="C203" s="17"/>
       <c r="D203" s="17"/>
       <c r="E203" s="18"/>
-      <c r="G203" s="11"/>
       <c r="H203" s="11"/>
       <c r="I203" s="11"/>
       <c r="J203" s="11"/>
       <c r="K203" s="11"/>
-      <c r="L203" s="11"/>
     </row>
     <row r="204" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="16"/>
       <c r="C204" s="17"/>
       <c r="D204" s="17"/>
       <c r="E204" s="18"/>
-      <c r="F204" s="11"/>
       <c r="G204" s="11"/>
       <c r="H204" s="11"/>
       <c r="I204" s="11"/>
       <c r="J204" s="11"/>
       <c r="K204" s="11"/>
       <c r="L204" s="11"/>
-      <c r="M204" s="11"/>
-      <c r="N204" s="11"/>
-      <c r="O204" s="11"/>
-      <c r="P204" s="11"/>
-      <c r="Q204" s="11"/>
-      <c r="R204" s="11"/>
-      <c r="S204" s="11"/>
-      <c r="T204" s="11"/>
-      <c r="U204" s="11"/>
-      <c r="V204" s="11"/>
-      <c r="W204" s="11"/>
-      <c r="X204" s="11"/>
-      <c r="Y204" s="11"/>
-      <c r="Z204" s="11"/>
     </row>
     <row r="205" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="16"/>
@@ -2660,6 +2653,10 @@
       <c r="E206" s="18"/>
       <c r="F206" s="11"/>
       <c r="G206" s="11"/>
+      <c r="H206" s="11"/>
+      <c r="I206" s="11"/>
+      <c r="J206" s="11"/>
+      <c r="K206" s="11"/>
       <c r="L206" s="11"/>
       <c r="M206" s="11"/>
       <c r="N206" s="11"/>
@@ -2682,6 +2679,8 @@
       <c r="D207" s="17"/>
       <c r="E207" s="18"/>
       <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
+      <c r="L207" s="11"/>
       <c r="M207" s="11"/>
       <c r="N207" s="11"/>
       <c r="O207" s="11"/>
@@ -2702,6 +2701,21 @@
       <c r="C208" s="17"/>
       <c r="D208" s="17"/>
       <c r="E208" s="18"/>
+      <c r="F208" s="11"/>
+      <c r="M208" s="11"/>
+      <c r="N208" s="11"/>
+      <c r="O208" s="11"/>
+      <c r="P208" s="11"/>
+      <c r="Q208" s="11"/>
+      <c r="R208" s="11"/>
+      <c r="S208" s="11"/>
+      <c r="T208" s="11"/>
+      <c r="U208" s="11"/>
+      <c r="V208" s="11"/>
+      <c r="W208" s="11"/>
+      <c r="X208" s="11"/>
+      <c r="Y208" s="11"/>
+      <c r="Z208" s="11"/>
     </row>
     <row r="209" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="16"/>
@@ -6681,7 +6695,12 @@
       <c r="D871" s="17"/>
       <c r="E871" s="18"/>
     </row>
-    <row r="872" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A872" s="16"/>
+      <c r="C872" s="17"/>
+      <c r="D872" s="17"/>
+      <c r="E872" s="18"/>
+    </row>
     <row r="873" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="874" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="875" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6808,12 +6827,13 @@
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A96:E96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cash Book/Expenditure Mian Arshad.xlsx
+++ b/Cash Book/Expenditure Mian Arshad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A18CE9-732A-49E7-A2D9-1639B8991F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BDBF46-61B4-470F-A86D-6C22BD384531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cash Recevid Via Basit Sahb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Recevid Via Arshad Sahb </t>
   </si>
 </sst>
 </file>
@@ -757,7 +760,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1094,25 +1097,41 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="26">
+        <v>45871</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9">
+        <v>50000</v>
+      </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>147825</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="26">
+        <v>45871</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9">
+        <v>250000</v>
+      </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1123,7 +1142,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1134,7 +1153,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1145,7 +1164,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1156,7 +1175,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1167,7 +1186,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1178,7 +1197,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,7 +1208,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1200,7 +1219,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1211,7 +1230,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1222,7 +1241,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1233,7 +1252,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,7 +1263,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1255,7 +1274,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1266,7 +1285,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1277,7 +1296,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1288,7 +1307,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,7 +1318,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1310,7 +1329,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1321,7 +1340,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1332,7 +1351,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1343,7 +1362,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1354,7 +1373,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1365,7 +1384,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1376,7 +1395,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1387,7 +1406,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1398,7 +1417,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1409,7 +1428,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1420,7 +1439,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1431,7 +1450,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1442,7 +1461,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1453,7 +1472,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1464,7 +1483,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1475,7 +1494,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1486,7 +1505,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,7 +1516,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1508,7 +1527,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1519,7 +1538,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1530,7 +1549,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1541,7 +1560,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1552,7 +1571,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1563,7 +1582,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1574,7 +1593,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1585,7 +1604,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,7 +1615,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1607,7 +1626,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1618,7 +1637,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1629,7 +1648,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1640,7 +1659,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1651,7 +1670,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1662,7 +1681,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1673,7 +1692,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1684,7 +1703,7 @@
       <c r="E71" s="9"/>
       <c r="F71" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1695,7 +1714,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1706,7 +1725,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1717,7 +1736,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1728,7 +1747,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1739,7 +1758,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1750,7 +1769,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1761,7 +1780,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1772,7 +1791,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1783,7 +1802,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1794,7 +1813,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1805,7 +1824,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1816,7 +1835,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1827,7 +1846,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1838,7 +1857,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1849,7 +1868,7 @@
       <c r="E86" s="9"/>
       <c r="F86" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1860,7 +1879,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1871,7 +1890,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1881,7 +1900,7 @@
       <c r="E89" s="9"/>
       <c r="F89" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1892,7 +1911,7 @@
       <c r="E90" s="9"/>
       <c r="F90" s="5">
         <f>(E90-D90)+F89</f>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1903,7 +1922,7 @@
       <c r="E91" s="9"/>
       <c r="F91" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1914,7 +1933,7 @@
       <c r="E92" s="9"/>
       <c r="F92" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1925,7 +1944,7 @@
       <c r="E93" s="9"/>
       <c r="F93" s="5">
         <f t="shared" si="0"/>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1941,7 +1960,7 @@
       <c r="E94" s="12"/>
       <c r="F94" s="5">
         <f>F92</f>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1953,11 +1972,11 @@
       <c r="D95" s="32"/>
       <c r="E95" s="14">
         <f>SUM(E11:E93)</f>
-        <v>569750</v>
+        <v>869750</v>
       </c>
       <c r="F95" s="5">
         <f>F93</f>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1970,7 +1989,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="15">
         <f>F93</f>
-        <v>97825</v>
+        <v>397825</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Cash Book/Expenditure Mian Arshad.xlsx
+++ b/Cash Book/Expenditure Mian Arshad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BDBF46-61B4-470F-A86D-6C22BD384531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FE2ED0-E190-4844-A04D-2BB76C17308C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,38 +121,45 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,6 +167,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -760,7 +768,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Cash Book/Expenditure Mian Arshad.xlsx
+++ b/Cash Book/Expenditure Mian Arshad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FE2ED0-E190-4844-A04D-2BB76C17308C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E712626C-4081-4192-94E3-3FCBD18E1B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,7 +768,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="F18" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Cash Book/Expenditure Mian Arshad.xlsx
+++ b/Cash Book/Expenditure Mian Arshad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E712626C-4081-4192-94E3-3FCBD18E1B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37E59F5-0D7D-4F70-BBF2-5A46F24A1CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,7 +768,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
